--- a/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBars.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBars.xlsx
@@ -518,7 +518,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d279bd29-1c16-4e1e-afe3-f09f25236bb6}</x14:id>
+          <x14:id>{eec4d1a7-167c-48aa-90e5-5b9a36862be5}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -532,7 +532,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2286f5e1-34bd-461f-9fa2-230bf1d22276}</x14:id>
+          <x14:id>{e82188dc-c20b-47bb-aaa5-eb9eccff24d0}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -546,7 +546,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e5c9b3e6-d56a-459c-919e-6f617920071f}</x14:id>
+          <x14:id>{dc8d5093-2e00-4d66-96c4-a2936abd0ea8}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -560,7 +560,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bc7a7100-f6a5-43c8-b184-6f80cdfa20c2}</x14:id>
+          <x14:id>{5ed85cce-2633-44e0-a200-04513814e1ee}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -574,7 +574,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9a7bc8ee-1300-46e0-bd57-68b94062871e}</x14:id>
+          <x14:id>{ed616d72-789c-4e30-9775-060eaa19c7c8}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -588,7 +588,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{56343243-5cae-44cd-a87d-e4a64f8bac10}</x14:id>
+          <x14:id>{9fdc881c-9f52-4e83-8072-8f4084a1426c}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -602,7 +602,7 @@
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d279bd29-1c16-4e1e-afe3-f09f25236bb6}">
+          <x14:cfRule type="dataBar" id="{eec4d1a7-167c-48aa-90e5-5b9a36862be5}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -613,7 +613,7 @@
           <xm:sqref>A2:A6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2286f5e1-34bd-461f-9fa2-230bf1d22276}">
+          <x14:cfRule type="dataBar" id="{e82188dc-c20b-47bb-aaa5-eb9eccff24d0}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -628,7 +628,7 @@
           <xm:sqref>B2:B6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e5c9b3e6-d56a-459c-919e-6f617920071f}">
+          <x14:cfRule type="dataBar" id="{dc8d5093-2e00-4d66-96c4-a2936abd0ea8}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -643,7 +643,7 @@
           <xm:sqref>C2:C6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{bc7a7100-f6a5-43c8-b184-6f80cdfa20c2}">
+          <x14:cfRule type="dataBar" id="{5ed85cce-2633-44e0-a200-04513814e1ee}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>50</xm:f>
@@ -658,7 +658,7 @@
           <xm:sqref>D2:D6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9a7bc8ee-1300-46e0-bd57-68b94062871e}">
+          <x14:cfRule type="dataBar" id="{ed616d72-789c-4e30-9775-060eaa19c7c8}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>-SUM($A$2:$E$2)</xm:f>
@@ -673,7 +673,7 @@
           <xm:sqref>E2:E6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{56343243-5cae-44cd-a87d-e4a64f8bac10}">
+          <x14:cfRule type="dataBar" id="{9fdc881c-9f52-4e83-8072-8f4084a1426c}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>30</xm:f>

--- a/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBars.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBars.xlsx
@@ -518,7 +518,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{61a46fd7-35fd-49eb-a865-b9b8ce7b9454}</x14:id>
+          <x14:id>{38657ac8-4141-40ba-9e5e-b6b3d8eb0a5f}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -532,7 +532,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{76528df6-0afc-4c86-a5d0-b24a4b2292fe}</x14:id>
+          <x14:id>{059f63cd-9c4b-48d0-85da-be0c5f853e61}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -546,7 +546,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a494ef0a-c9af-4590-8cb6-8a316f8d6def}</x14:id>
+          <x14:id>{3946bb04-f6aa-47c3-84ef-1824d925eb30}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -560,7 +560,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{60a072bc-2260-4dd3-a0af-dfb821fbcf24}</x14:id>
+          <x14:id>{56bc1be2-c465-4fbc-a57f-e47cc39500f7}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -574,7 +574,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{79fed110-6f4c-4682-a2b0-916675dad5f4}</x14:id>
+          <x14:id>{72a1414b-bcb1-4040-bf45-6f97f46c1b4d}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -588,7 +588,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b7ae63a1-99c2-4c7b-a470-5cb90fc41cc9}</x14:id>
+          <x14:id>{1f019baf-a007-4239-87e8-0e776ae7ba4c}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -602,7 +602,7 @@
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{61a46fd7-35fd-49eb-a865-b9b8ce7b9454}">
+          <x14:cfRule type="dataBar" id="{38657ac8-4141-40ba-9e5e-b6b3d8eb0a5f}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -613,7 +613,7 @@
           <xm:sqref>A2:A6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{76528df6-0afc-4c86-a5d0-b24a4b2292fe}">
+          <x14:cfRule type="dataBar" id="{059f63cd-9c4b-48d0-85da-be0c5f853e61}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -628,7 +628,7 @@
           <xm:sqref>B2:B6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a494ef0a-c9af-4590-8cb6-8a316f8d6def}">
+          <x14:cfRule type="dataBar" id="{3946bb04-f6aa-47c3-84ef-1824d925eb30}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -643,7 +643,7 @@
           <xm:sqref>C2:C6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{60a072bc-2260-4dd3-a0af-dfb821fbcf24}">
+          <x14:cfRule type="dataBar" id="{56bc1be2-c465-4fbc-a57f-e47cc39500f7}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>50</xm:f>
@@ -658,7 +658,7 @@
           <xm:sqref>D2:D6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{79fed110-6f4c-4682-a2b0-916675dad5f4}">
+          <x14:cfRule type="dataBar" id="{72a1414b-bcb1-4040-bf45-6f97f46c1b4d}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>-SUM($A$2:$E$2)</xm:f>
@@ -673,7 +673,7 @@
           <xm:sqref>E2:E6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b7ae63a1-99c2-4c7b-a470-5cb90fc41cc9}">
+          <x14:cfRule type="dataBar" id="{1f019baf-a007-4239-87e8-0e776ae7ba4c}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>30</xm:f>

--- a/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBars.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBars.xlsx
@@ -409,102 +409,102 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="A2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="n">
+      <x:c r="A2" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C2" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D2" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E2" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F2" s="0">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="A3" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="n">
+      <x:c r="A3" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B3" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C3" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D3" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E3" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F3" s="0">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="A4" s="0" t="n">
+      <x:c r="A4" s="0">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="n">
+      <x:c r="B4" s="0">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="C4" s="0">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="n">
+      <x:c r="D4" s="0">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="n">
+      <x:c r="E4" s="0">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="n">
+      <x:c r="F4" s="0">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="A5" s="0" t="n">
+      <x:c r="A5" s="0">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="n">
+      <x:c r="B5" s="0">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="n">
+      <x:c r="C5" s="0">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="n">
+      <x:c r="D5" s="0">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="n">
+      <x:c r="E5" s="0">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="n">
+      <x:c r="F5" s="0">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="A6" s="0" t="n">
+      <x:c r="A6" s="0">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="n">
+      <x:c r="B6" s="0">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="n">
+      <x:c r="C6" s="0">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="n">
+      <x:c r="D6" s="0">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="n">
+      <x:c r="E6" s="0">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="n">
+      <x:c r="F6" s="0">
         <x:v>4</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBars.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBars.xlsx
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -518,7 +518,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eec4d1a7-167c-48aa-90e5-5b9a36862be5}</x14:id>
+          <x14:id>{edfea128-b757-4abd-835b-1d9665ec78ae}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -532,7 +532,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e82188dc-c20b-47bb-aaa5-eb9eccff24d0}</x14:id>
+          <x14:id>{64a0c127-cd1e-4567-9d82-3849958112f9}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -546,7 +546,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dc8d5093-2e00-4d66-96c4-a2936abd0ea8}</x14:id>
+          <x14:id>{ddc5755b-9d6a-4c43-be3f-ce954ea8aeaf}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -560,7 +560,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5ed85cce-2633-44e0-a200-04513814e1ee}</x14:id>
+          <x14:id>{87f2776d-6448-4409-80e3-e2494b371e3c}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -574,7 +574,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ed616d72-789c-4e30-9775-060eaa19c7c8}</x14:id>
+          <x14:id>{84400e88-282c-4d08-89f8-b2c41934654e}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -588,7 +588,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9fdc881c-9f52-4e83-8072-8f4084a1426c}</x14:id>
+          <x14:id>{7e6d2e20-5873-450d-8036-681773a6e703}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -602,7 +602,7 @@
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eec4d1a7-167c-48aa-90e5-5b9a36862be5}">
+          <x14:cfRule type="dataBar" id="{edfea128-b757-4abd-835b-1d9665ec78ae}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -613,7 +613,7 @@
           <xm:sqref>A2:A6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e82188dc-c20b-47bb-aaa5-eb9eccff24d0}">
+          <x14:cfRule type="dataBar" id="{64a0c127-cd1e-4567-9d82-3849958112f9}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -628,7 +628,7 @@
           <xm:sqref>B2:B6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dc8d5093-2e00-4d66-96c4-a2936abd0ea8}">
+          <x14:cfRule type="dataBar" id="{ddc5755b-9d6a-4c43-be3f-ce954ea8aeaf}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -643,7 +643,7 @@
           <xm:sqref>C2:C6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5ed85cce-2633-44e0-a200-04513814e1ee}">
+          <x14:cfRule type="dataBar" id="{87f2776d-6448-4409-80e3-e2494b371e3c}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>50</xm:f>
@@ -658,7 +658,7 @@
           <xm:sqref>D2:D6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ed616d72-789c-4e30-9775-060eaa19c7c8}">
+          <x14:cfRule type="dataBar" id="{84400e88-282c-4d08-89f8-b2c41934654e}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>-SUM($A$2:$E$2)</xm:f>
@@ -673,7 +673,7 @@
           <xm:sqref>E2:E6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9fdc881c-9f52-4e83-8072-8f4084a1426c}">
+          <x14:cfRule type="dataBar" id="{7e6d2e20-5873-450d-8036-681773a6e703}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>30</xm:f>

--- a/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBars.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBars.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Automatic</x:t>
   </x:si>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -518,7 +518,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{edfea128-b757-4abd-835b-1d9665ec78ae}</x14:id>
+          <x14:id>{0919a367-36c7-49f9-b2ba-d6dc56327ace}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -532,7 +532,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{64a0c127-cd1e-4567-9d82-3849958112f9}</x14:id>
+          <x14:id>{87956b1a-8603-4cb5-8097-e394c4a1a11f}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -546,7 +546,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ddc5755b-9d6a-4c43-be3f-ce954ea8aeaf}</x14:id>
+          <x14:id>{8b695999-07ce-44f4-acd8-0ec973c91ac4}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -560,7 +560,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{87f2776d-6448-4409-80e3-e2494b371e3c}</x14:id>
+          <x14:id>{20b1bd6d-72e9-475a-a31b-47d4e6254047}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -574,7 +574,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{84400e88-282c-4d08-89f8-b2c41934654e}</x14:id>
+          <x14:id>{4c905630-3417-4a98-84f8-3d5d4790ba69}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -588,7 +588,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7e6d2e20-5873-450d-8036-681773a6e703}</x14:id>
+          <x14:id>{d9e119f7-9070-4057-905e-0bfd82b7fbe8}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -602,7 +602,7 @@
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{edfea128-b757-4abd-835b-1d9665ec78ae}">
+          <x14:cfRule type="dataBar" id="{0919a367-36c7-49f9-b2ba-d6dc56327ace}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -613,7 +613,7 @@
           <xm:sqref>A2:A6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{64a0c127-cd1e-4567-9d82-3849958112f9}">
+          <x14:cfRule type="dataBar" id="{87956b1a-8603-4cb5-8097-e394c4a1a11f}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -628,7 +628,7 @@
           <xm:sqref>B2:B6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ddc5755b-9d6a-4c43-be3f-ce954ea8aeaf}">
+          <x14:cfRule type="dataBar" id="{8b695999-07ce-44f4-acd8-0ec973c91ac4}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -643,7 +643,7 @@
           <xm:sqref>C2:C6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{87f2776d-6448-4409-80e3-e2494b371e3c}">
+          <x14:cfRule type="dataBar" id="{20b1bd6d-72e9-475a-a31b-47d4e6254047}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>50</xm:f>
@@ -658,7 +658,7 @@
           <xm:sqref>D2:D6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{84400e88-282c-4d08-89f8-b2c41934654e}">
+          <x14:cfRule type="dataBar" id="{4c905630-3417-4a98-84f8-3d5d4790ba69}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>-SUM($A$2:$E$2)</xm:f>
@@ -673,7 +673,7 @@
           <xm:sqref>E2:E6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7e6d2e20-5873-450d-8036-681773a6e703}">
+          <x14:cfRule type="dataBar" id="{d9e119f7-9070-4057-905e-0bfd82b7fbe8}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>30</xm:f>

--- a/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBars.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBars.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -518,7 +518,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0919a367-36c7-49f9-b2ba-d6dc56327ace}</x14:id>
+          <x14:id>{38d9e5d3-73a7-4e18-b3b9-aa1b26e4cc06}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -532,7 +532,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{87956b1a-8603-4cb5-8097-e394c4a1a11f}</x14:id>
+          <x14:id>{0671ebad-2a52-43f6-a3a9-585018af6f01}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -546,7 +546,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8b695999-07ce-44f4-acd8-0ec973c91ac4}</x14:id>
+          <x14:id>{0b10551c-b4e0-4975-ac10-c045e09df4bf}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -560,7 +560,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{20b1bd6d-72e9-475a-a31b-47d4e6254047}</x14:id>
+          <x14:id>{49ad88bb-d5a9-4684-afcc-8033d8d051eb}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -574,7 +574,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4c905630-3417-4a98-84f8-3d5d4790ba69}</x14:id>
+          <x14:id>{93055e58-8649-4a74-9a8e-1e4036062ece}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -588,7 +588,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d9e119f7-9070-4057-905e-0bfd82b7fbe8}</x14:id>
+          <x14:id>{01b3b3bb-243e-4add-ae5b-fd208d5e5960}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -602,7 +602,7 @@
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0919a367-36c7-49f9-b2ba-d6dc56327ace}">
+          <x14:cfRule type="dataBar" id="{38d9e5d3-73a7-4e18-b3b9-aa1b26e4cc06}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -613,7 +613,7 @@
           <xm:sqref>A2:A6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{87956b1a-8603-4cb5-8097-e394c4a1a11f}">
+          <x14:cfRule type="dataBar" id="{0671ebad-2a52-43f6-a3a9-585018af6f01}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -628,7 +628,7 @@
           <xm:sqref>B2:B6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8b695999-07ce-44f4-acd8-0ec973c91ac4}">
+          <x14:cfRule type="dataBar" id="{0b10551c-b4e0-4975-ac10-c045e09df4bf}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -643,7 +643,7 @@
           <xm:sqref>C2:C6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{20b1bd6d-72e9-475a-a31b-47d4e6254047}">
+          <x14:cfRule type="dataBar" id="{49ad88bb-d5a9-4684-afcc-8033d8d051eb}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>50</xm:f>
@@ -658,7 +658,7 @@
           <xm:sqref>D2:D6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4c905630-3417-4a98-84f8-3d5d4790ba69}">
+          <x14:cfRule type="dataBar" id="{93055e58-8649-4a74-9a8e-1e4036062ece}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>-SUM($A$2:$E$2)</xm:f>
@@ -673,7 +673,7 @@
           <xm:sqref>E2:E6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d9e119f7-9070-4057-905e-0bfd82b7fbe8}">
+          <x14:cfRule type="dataBar" id="{01b3b3bb-243e-4add-ae5b-fd208d5e5960}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>30</xm:f>
